--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OnGoing\api-ashley\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OnGoing\ashley-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63352FBA-CED7-4AF5-8A89-B740FCF774ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0F61B7-AE41-4BD2-8D3B-7F2CD20DE127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2550" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
+    <workbookView xWindow="4860" yWindow="2550" windowWidth="10500" windowHeight="8970" activeTab="3" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Tasks" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Meeting Points" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>User</t>
   </si>
@@ -63,69 +64,18 @@
     <t>email</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>is_active</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
-    <t>item_code</t>
-  </si>
-  <si>
-    <t>User Address</t>
-  </si>
-  <si>
-    <t>address_name</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
     <t>state</t>
   </si>
   <si>
-    <t>zip_code</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
     <t>phone_no</t>
   </si>
   <si>
-    <t>phone_no1</t>
-  </si>
-  <si>
-    <t>phone_no2</t>
-  </si>
-  <si>
-    <t>is_default</t>
-  </si>
-  <si>
-    <t>images</t>
-  </si>
-  <si>
-    <t>array</t>
-  </si>
-  <si>
     <t>Issues to be discussed:</t>
   </si>
   <si>
@@ -195,16 +145,10 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Seller APIs</t>
-  </si>
-  <si>
     <t>Upload UserImage &amp; delete image with file implemented</t>
   </si>
   <si>
     <t>Implemented customized functions for reusability</t>
-  </si>
-  <si>
-    <t>Product APIs</t>
   </si>
   <si>
     <t>Implemented Seller model with APIs</t>
@@ -341,15 +285,6 @@
     <t>Carts</t>
   </si>
   <si>
-    <t>zipcode necessary</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>Franchise</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -378,6 +313,12 @@
   </si>
   <si>
     <t>zip</t>
+  </si>
+  <si>
+    <t>ratings (Number)</t>
+  </si>
+  <si>
+    <t>Categories API for nested sub-categories</t>
   </si>
 </sst>
 </file>
@@ -469,13 +410,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -484,7 +424,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -963,8 +903,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="72.5703125" customWidth="1"/>
     <col min="4" max="4" width="43.140625" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -972,341 +912,341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>41</v>
+      <c r="A1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="str">
+      <c r="A2" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>44699</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="str">
+      <c r="A3" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>44700</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="str">
+      <c r="A4" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>44701</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>44702</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>44703</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>86</v>
+      <c r="C6" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="str">
+      <c r="A7" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>44704</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="str">
+      <c r="A8" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Tue</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>44705</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="str">
+      <c r="A9" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>44706</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="str">
+      <c r="A10" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>44707</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="str">
+      <c r="A11" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>44708</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="str">
+      <c r="A12" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>44709</v>
       </c>
       <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="str">
+        <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44710</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="str">
+        <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
+        <v>Mon</v>
+      </c>
+      <c r="B14" s="5">
+        <v>44711</v>
+      </c>
+      <c r="C14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="str">
-        <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
-        <v>Sun</v>
-      </c>
-      <c r="B13" s="12">
-        <v>44710</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="str">
-        <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
-        <v>Mon</v>
-      </c>
-      <c r="B14" s="6">
-        <v>44711</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="str">
+      <c r="A15" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Tue</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>44712</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="str">
+      <c r="A16" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>44713</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="str">
+      <c r="A17" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>44714</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="str">
+      <c r="A18" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>44715</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="str">
+      <c r="A19" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>44716</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="str">
+    <row r="20" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>44717</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>86</v>
+      <c r="C20" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="str">
+      <c r="A21" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Mon</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>44718</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="str">
+      <c r="A22" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Tue</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>44719</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="str">
+      <c r="A23" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Wed</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>44720</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="str">
+      <c r="A24" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Thu</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>44721</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="str">
+      <c r="A25" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Fri</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>44722</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="str">
+      <c r="A26" s="9" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Sat</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>44723</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="str">
+    <row r="27" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"ddd")</f>
         <v>Sun</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>44724</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>86</v>
+      <c r="C27" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1328,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC103FC8-C95E-4CF1-9B65-D60B0A1C9F20}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,211 +1289,94 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="7">
-        <v>44708</v>
-      </c>
-      <c r="G31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="7">
-        <v>44708</v>
-      </c>
-      <c r="G32" t="s">
-        <v>55</v>
-      </c>
+      <c r="A12" s="2"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="4"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="4"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F39" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>74</v>
+        <v>17</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="G40" t="s">
         <v>2</v>
@@ -1563,66 +1386,66 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G41" s="9" t="s">
-        <v>71</v>
+      <c r="G41" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="H41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>62</v>
+        <v>41</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I45" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1632,18 +1455,18 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s">
         <v>5</v>
@@ -1651,16 +1474,16 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1668,88 +1491,76 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>93</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1778,15 +1589,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1803,7 +1614,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1817,7 +1628,7 @@
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
@@ -1827,31 +1638,51 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F4ED56-B76B-4837-9857-BA2CEA8C1F28}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OnGoing\ashley-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OnGoing\ashley-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0F61B7-AE41-4BD2-8D3B-7F2CD20DE127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CB7A49-46AD-4E52-B952-01CB061EF911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2550" windowWidth="10500" windowHeight="8970" activeTab="3" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Tasks" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>User</t>
   </si>
@@ -318,7 +318,25 @@
     <t>ratings (Number)</t>
   </si>
   <si>
-    <t>Categories API for nested sub-categories</t>
+    <t>category with sub categories</t>
+  </si>
+  <si>
+    <t>discounted products</t>
+  </si>
+  <si>
+    <t>to be discussed</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Filter endpoints</t>
+  </si>
+  <si>
+    <t>Filters options to be added in Category Model</t>
+  </si>
+  <si>
+    <t>api not working</t>
   </si>
 </sst>
 </file>
@@ -1669,17 +1687,53 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F4ED56-B76B-4837-9857-BA2CEA8C1F28}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OnGoing\ashley-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OnGoing\ashley-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CB7A49-46AD-4E52-B952-01CB061EF911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF69224-5876-4B14-9051-01AD40D1D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
+    <workbookView xWindow="420" yWindow="6900" windowWidth="13140" windowHeight="9915" activeTab="3" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Tasks" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
   <si>
     <t>User</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>api not working</t>
+  </si>
+  <si>
+    <t>Reviews based ratings</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +416,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -428,7 +437,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -455,6 +464,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1687,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F4ED56-B76B-4837-9857-BA2CEA8C1F28}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,19 +1711,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1726,14 +1728,22 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OnGoing\ashley-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF69224-5876-4B14-9051-01AD40D1D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47F1D7C-6D67-4E1E-92A4-D91632223321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="6900" windowWidth="13140" windowHeight="9915" activeTab="3" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Tasks" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Meeting Points" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>User</t>
   </si>
@@ -341,6 +342,15 @@
   <si>
     <t>Reviews based ratings</t>
   </si>
+  <si>
+    <t>Store users FORM doesn't contain Store ID</t>
+  </si>
+  <si>
+    <t>cart post route is based on user ID params</t>
+  </si>
+  <si>
+    <t>product needs to be add new with update controller &amp; api endpoints</t>
+  </si>
 </sst>
 </file>
 
@@ -349,7 +359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]dd/mmm/yy;@" x16r2:formatCode16="[$-en-PK,1]dd/mmm/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +407,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -437,7 +454,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -465,6 +482,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -472,6 +490,14 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$]dd/mmm/yy;@" x16r2:formatCode16="[$-en-PK,1]dd/mmm/yy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -491,14 +517,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$]dd/mmm/yy;@" x16r2:formatCode16="[$-en-PK,1]dd/mmm/yy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -617,8 +635,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F59570DF-D901-4A01-87C9-E40F604C6CC2}" name="Table1" displayName="Table1" ref="A1:D27" totalsRowShown="0">
   <autoFilter ref="A1:D27" xr:uid="{F59570DF-D901-4A01-87C9-E40F604C6CC2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5009B7BE-FA3E-42D1-A3A7-ADFDBE142F67}" name="Day" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{840CBA56-9D8F-4DAC-8324-B50671BAC3EA}" name="Date" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5009B7BE-FA3E-42D1-A3A7-ADFDBE142F67}" name="Day" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{840CBA56-9D8F-4DAC-8324-B50671BAC3EA}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{92688EF5-C27C-455B-BB57-170276A463AF}" name="Task Completed"/>
     <tableColumn id="3" xr3:uid="{E7D883C0-BDB9-40F9-863F-399D7734E280}" name="Remarks"/>
   </tableColumns>
@@ -1279,10 +1297,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A4 A6:A11 A27 A20:A25 A13:A18">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Sun">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Sun">
       <formula>NOT(ISERROR(SEARCH("Sun",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Sat">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Sat">
       <formula>NOT(ISERROR(SEARCH("Sat",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1699,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F4ED56-B76B-4837-9857-BA2CEA8C1F28}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,4 +1767,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F8031F-1C6F-4D4F-8CA6-920E4708C59C}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="134.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A1" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A2" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A3" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OnGoing\ashley-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47F1D7C-6D67-4E1E-92A4-D91632223321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818A05DB-525B-4844-9437-1905F2AB9B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
   <si>
     <t>User</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>product needs to be add new with update controller &amp; api endpoints</t>
+  </si>
+  <si>
+    <t>Image lib of Next.js implemented</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,6 +442,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -454,7 +463,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -483,6 +492,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1771,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F8031F-1C6F-4D4F-8CA6-920E4708C59C}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
@@ -1784,18 +1794,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" s="15" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A4" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OnGoing\ashley-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818A05DB-525B-4844-9437-1905F2AB9B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1351CB55-6D67-4067-B142-1AA619FAE4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
   <si>
     <t>User</t>
   </si>
@@ -353,6 +353,33 @@
   </si>
   <si>
     <t>Image lib of Next.js implemented</t>
+  </si>
+  <si>
+    <t>CHATBOT</t>
+  </si>
+  <si>
+    <t>Reviews &amp; Rating</t>
+  </si>
+  <si>
+    <t>Wishlist ??</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Order Tracking</t>
+  </si>
+  <si>
+    <t>Payment Gateway</t>
+  </si>
+  <si>
+    <t>Payment Methods ??</t>
+  </si>
+  <si>
+    <t>actualPrice &amp; SalePrice is necessary for calculating profit</t>
+  </si>
+  <si>
+    <t>product colors need to be display via Dashboard (from Images)</t>
   </si>
 </sst>
 </file>
@@ -1781,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F8031F-1C6F-4D4F-8CA6-920E4708C59C}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
@@ -1813,6 +1840,51 @@
         <v>96</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A6" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A7" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A10" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A11" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A12" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A13" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A14" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A16" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A17" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OnGoing\ashley-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OnGoing\ashley-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1351CB55-6D67-4067-B142-1AA619FAE4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD2762A-4414-4B00-B83F-B91F4670E463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Tasks" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
   <si>
     <t>User</t>
   </si>
@@ -380,6 +380,24 @@
   </si>
   <si>
     <t>product colors need to be display via Dashboard (from Images)</t>
+  </si>
+  <si>
+    <t>Discount  ???</t>
+  </si>
+  <si>
+    <t>authorized.net</t>
+  </si>
+  <si>
+    <t>sema credit</t>
+  </si>
+  <si>
+    <t>paypal</t>
+  </si>
+  <si>
+    <t>coupon based</t>
+  </si>
+  <si>
+    <t>product based %</t>
   </si>
 </sst>
 </file>
@@ -1808,74 +1826,97 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F8031F-1C6F-4D4F-8CA6-920E4708C59C}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="134.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="2" max="2" width="29.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="15" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="B10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A15" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="15" t="s">
         <v>97</v>
       </c>

--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OnGoing\ashley-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahzad\Desktop\ashley-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD2762A-4414-4B00-B83F-B91F4670E463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0257D02-F5F8-4B1C-9C46-47C1825098C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Tasks" sheetId="2" r:id="rId1"/>
@@ -1828,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F8031F-1C6F-4D4F-8CA6-920E4708C59C}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
@@ -1862,7 +1862,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>104</v>
       </c>
     </row>

--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahzad\Desktop\ashley-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0257D02-F5F8-4B1C-9C46-47C1825098C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC8C2E8-2AA9-4AFA-8E80-D35A72D80EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12735" activeTab="4" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Tasks" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
   <si>
     <t>User</t>
   </si>
@@ -398,6 +398,12 @@
   </si>
   <si>
     <t>product based %</t>
+  </si>
+  <si>
+    <t>slider url implement in Dashboard</t>
+  </si>
+  <si>
+    <t>categories with nested levels</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D5FDD8-2E42-46E2-9622-97C31B0AE789}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1826,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F8031F-1C6F-4D4F-8CA6-920E4708C59C}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
@@ -1926,6 +1932,16 @@
         <v>102</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A21" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A22" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahzad\Desktop\ashley-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC8C2E8-2AA9-4AFA-8E80-D35A72D80EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA71BFB-069F-4687-A3A7-7A376594C526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12735" activeTab="4" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{9B9954AE-27A8-4982-954F-66D15F794264}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Tasks" sheetId="2" r:id="rId1"/>
@@ -1834,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F8031F-1C6F-4D4F-8CA6-920E4708C59C}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
